--- a/Attributes defined.xlsx
+++ b/Attributes defined.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/423200a02df8014e/Documents/GIT/MSDS6306CaseStudy2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/423200a02df8014e/Documents/GIT/MSDS6306summer2018/TEST/Test/MSDS6306CaseStudy2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{378FC2F5-A9DB-420B-804A-0FAC5AACAC31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{378FC2F5-A9DB-420B-804A-0FAC5AACAC31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{1E0F8D8C-C6DE-4908-9EF4-14D3C40651B2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{88BBD552-2538-4226-858F-41CC99F1E2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="655">
   <si>
     <t>Title: Communities and Crime</t>
   </si>
@@ -1523,13 +1526,481 @@
   </si>
   <si>
     <t>transportation</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>House Vacant</t>
+  </si>
+  <si>
+    <t>Education and Employment</t>
+  </si>
+  <si>
+    <t>Less than 9th Grade</t>
+  </si>
+  <si>
+    <t>Not HS Gradulate</t>
+  </si>
+  <si>
+    <t>BS or More Education</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Employed (%)</t>
+  </si>
+  <si>
+    <t>Employed - Manufacturing (%)</t>
+  </si>
+  <si>
+    <t>Employed - Professional Service (%)</t>
+  </si>
+  <si>
+    <t>Occupation - Mfrg (%)</t>
+  </si>
+  <si>
+    <t>Occupation - Prof Svc (%)</t>
+  </si>
+  <si>
+    <t>House Occuped (%)</t>
+  </si>
+  <si>
+    <t>House Owner Occupied (%)</t>
+  </si>
+  <si>
+    <t>Vacant Boarded (%)</t>
+  </si>
+  <si>
+    <t>Vacant more than 6 months (%)</t>
+  </si>
+  <si>
+    <t>Age between 12-29</t>
+  </si>
+  <si>
+    <t>Age between 16-24</t>
+  </si>
+  <si>
+    <t>Age 65-Over</t>
+  </si>
+  <si>
+    <t>Age between 12-21</t>
+  </si>
+  <si>
+    <t>"state",</t>
+  </si>
+  <si>
+    <t>"county",</t>
+  </si>
+  <si>
+    <t>"community",</t>
+  </si>
+  <si>
+    <t>"fold",</t>
+  </si>
+  <si>
+    <t>"population",</t>
+  </si>
+  <si>
+    <t>"householdsize",</t>
+  </si>
+  <si>
+    <t>"racepctblack",</t>
+  </si>
+  <si>
+    <t>"racePctWhite",</t>
+  </si>
+  <si>
+    <t>"racePctAsian",</t>
+  </si>
+  <si>
+    <t>"racePctHisp",</t>
+  </si>
+  <si>
+    <t>"agePct12t21",</t>
+  </si>
+  <si>
+    <t>"agePct12t29",</t>
+  </si>
+  <si>
+    <t>"agePct16t24",</t>
+  </si>
+  <si>
+    <t>"agePct65up",</t>
+  </si>
+  <si>
+    <t>"numbUrban",</t>
+  </si>
+  <si>
+    <t>"pctUrban",</t>
+  </si>
+  <si>
+    <t>"medIncome",</t>
+  </si>
+  <si>
+    <t>"pctWWage",</t>
+  </si>
+  <si>
+    <t>"pctWFarmSelf",</t>
+  </si>
+  <si>
+    <t>"pctWInvInc",</t>
+  </si>
+  <si>
+    <t>"pctWSocSec",</t>
+  </si>
+  <si>
+    <t>"pctWPubAsst",</t>
+  </si>
+  <si>
+    <t>"pctWRetire",</t>
+  </si>
+  <si>
+    <t>"medFamInc",</t>
+  </si>
+  <si>
+    <t>"perCapInc",</t>
+  </si>
+  <si>
+    <t>"whitePerCap",</t>
+  </si>
+  <si>
+    <t>"blackPerCap",</t>
+  </si>
+  <si>
+    <t>"indianPerCap",</t>
+  </si>
+  <si>
+    <t>"AsianPerCap",</t>
+  </si>
+  <si>
+    <t>"OtherPerCap",</t>
+  </si>
+  <si>
+    <t>"HispPerCap",</t>
+  </si>
+  <si>
+    <t>"NumUnderPov",</t>
+  </si>
+  <si>
+    <t>"PctPopUnderPov",</t>
+  </si>
+  <si>
+    <t>"PctLess9thGrade",</t>
+  </si>
+  <si>
+    <t>"PctNotHSGrad",</t>
+  </si>
+  <si>
+    <t>"PctBSorMore",</t>
+  </si>
+  <si>
+    <t>"PctUnemployed",</t>
+  </si>
+  <si>
+    <t>"PctEmploy",</t>
+  </si>
+  <si>
+    <t>"PctEmplManu",</t>
+  </si>
+  <si>
+    <t>"PctEmplProfServ",</t>
+  </si>
+  <si>
+    <t>"PctOccupManu",</t>
+  </si>
+  <si>
+    <t>"PctOccupMgmtProf",</t>
+  </si>
+  <si>
+    <t>"MalePctDivorce",</t>
+  </si>
+  <si>
+    <t>"MalePctNevMarr",</t>
+  </si>
+  <si>
+    <t>"FemalePctDiv",</t>
+  </si>
+  <si>
+    <t>"TotalPctDiv",</t>
+  </si>
+  <si>
+    <t>"PersPerFam",</t>
+  </si>
+  <si>
+    <t>"PctFam2Par",</t>
+  </si>
+  <si>
+    <t>"PctKids2Par",</t>
+  </si>
+  <si>
+    <t>"PctYoungKids2Par",</t>
+  </si>
+  <si>
+    <t>"PctTeen2Par",</t>
+  </si>
+  <si>
+    <t>"PctWorkMomYoungKids",</t>
+  </si>
+  <si>
+    <t>"PctWorkMom",</t>
+  </si>
+  <si>
+    <t>"NumIlleg",</t>
+  </si>
+  <si>
+    <t>"PctIlleg",</t>
+  </si>
+  <si>
+    <t>"NumImmig",</t>
+  </si>
+  <si>
+    <t>"PctImmigRecent",</t>
+  </si>
+  <si>
+    <t>"PctImmigRec5",</t>
+  </si>
+  <si>
+    <t>"PctImmigRec8",</t>
+  </si>
+  <si>
+    <t>"PctImmigRec10",</t>
+  </si>
+  <si>
+    <t>"PctRecentImmig",</t>
+  </si>
+  <si>
+    <t>"PctRecImmig5",</t>
+  </si>
+  <si>
+    <t>"PctRecImmig8",</t>
+  </si>
+  <si>
+    <t>"PctRecImmig10",</t>
+  </si>
+  <si>
+    <t>"PctSpeakEnglOnly",</t>
+  </si>
+  <si>
+    <t>"PctNotSpeakEnglWell",</t>
+  </si>
+  <si>
+    <t>"PctLargHouseFam",</t>
+  </si>
+  <si>
+    <t>"PctLargHouseOccup",</t>
+  </si>
+  <si>
+    <t>"PersPerOccupHous",</t>
+  </si>
+  <si>
+    <t>"PersPerOwnOccHous",</t>
+  </si>
+  <si>
+    <t>"PersPerRentOccHous",</t>
+  </si>
+  <si>
+    <t>"PctPersOwnOccup",</t>
+  </si>
+  <si>
+    <t>"PctPersDenseHous",</t>
+  </si>
+  <si>
+    <t>"PctHousLess3BR",</t>
+  </si>
+  <si>
+    <t>"MedNumBR",</t>
+  </si>
+  <si>
+    <t>"HousVacant",</t>
+  </si>
+  <si>
+    <t>"PctHousOccup",</t>
+  </si>
+  <si>
+    <t>"PctHousOwnOcc",</t>
+  </si>
+  <si>
+    <t>"PctVacantBoarded",</t>
+  </si>
+  <si>
+    <t>"PctVacMore6Mos",</t>
+  </si>
+  <si>
+    <t>"MedYrHousBuilt",</t>
+  </si>
+  <si>
+    <t>"PctHousNoPhone",</t>
+  </si>
+  <si>
+    <t>"PctWOFullPlumb",</t>
+  </si>
+  <si>
+    <t>"OwnOccLowQuart",</t>
+  </si>
+  <si>
+    <t>"OwnOccMedVal",</t>
+  </si>
+  <si>
+    <t>"OwnOccHiQuart",</t>
+  </si>
+  <si>
+    <t>"RentLowQ",</t>
+  </si>
+  <si>
+    <t>"RentMedian",</t>
+  </si>
+  <si>
+    <t>"RentHighQ",</t>
+  </si>
+  <si>
+    <t>"MedRent",</t>
+  </si>
+  <si>
+    <t>"MedRentPctHousInc",</t>
+  </si>
+  <si>
+    <t>"MedOwnCostPctInc",</t>
+  </si>
+  <si>
+    <t>"MedOwnCostPctIncNoMtg",</t>
+  </si>
+  <si>
+    <t>"NumInShelters",</t>
+  </si>
+  <si>
+    <t>"NumStreet",</t>
+  </si>
+  <si>
+    <t>"PctForeignBorn",</t>
+  </si>
+  <si>
+    <t>"PctBornSameState",</t>
+  </si>
+  <si>
+    <t>"PctSameHouse85",</t>
+  </si>
+  <si>
+    <t>"PctSameCity85",</t>
+  </si>
+  <si>
+    <t>"PctSameState85",</t>
+  </si>
+  <si>
+    <t>"LemasSwornFT",</t>
+  </si>
+  <si>
+    <t>"LemasSwFTPerPop",</t>
+  </si>
+  <si>
+    <t>"LemasSwFTFieldOps",</t>
+  </si>
+  <si>
+    <t>"LemasSwFTFieldPerPop",</t>
+  </si>
+  <si>
+    <t>"LemasTotalReq",</t>
+  </si>
+  <si>
+    <t>"LemasTotReqPerPop",</t>
+  </si>
+  <si>
+    <t>"PolicReqPerOffic",</t>
+  </si>
+  <si>
+    <t>"PolicPerPop",</t>
+  </si>
+  <si>
+    <t>"RacialMatchCommPol",</t>
+  </si>
+  <si>
+    <t>"PctPolicWhite",</t>
+  </si>
+  <si>
+    <t>"PctPolicBlack",</t>
+  </si>
+  <si>
+    <t>"PctPolicHisp",</t>
+  </si>
+  <si>
+    <t>"PctPolicAsian",</t>
+  </si>
+  <si>
+    <t>"PctPolicMinor",</t>
+  </si>
+  <si>
+    <t>"OfficAssgnDrugUnits",</t>
+  </si>
+  <si>
+    <t>"NumKindsDrugsSeiz",</t>
+  </si>
+  <si>
+    <t>"PolicAveOTWorked",</t>
+  </si>
+  <si>
+    <t>"LandArea",</t>
+  </si>
+  <si>
+    <t>"PopDens",</t>
+  </si>
+  <si>
+    <t>"PctUsePubTrans",</t>
+  </si>
+  <si>
+    <t>"PolicCars",</t>
+  </si>
+  <si>
+    <t>"PolicOperBudg",</t>
+  </si>
+  <si>
+    <t>"LemasPctPolicOnPatr",</t>
+  </si>
+  <si>
+    <t>"LemasGangUnitDeploy",</t>
+  </si>
+  <si>
+    <t>"LemasPctOfficDrugUn",</t>
+  </si>
+  <si>
+    <t>"PolicBudgPerPop",</t>
+  </si>
+  <si>
+    <t>"ViolentCrimesPerPop",</t>
+  </si>
+  <si>
+    <t>"communityname ",</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,13 +2013,33 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1563,12 +2054,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,6 +2084,4176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Negative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Correlations between</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Violent Crimes Per Population vs Ethnicities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$D$5:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Indian</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-106D-4C86-A1C8-3698A1436E48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="628223912"/>
+        <c:axId val="628229816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="628223912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ethnicities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628229816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628229816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Violent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Crimes per Pop</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628223912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Positive Correlation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between Vacant Houses</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>vs. Violent Crimes Per Population</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$D$23:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>House Vacant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>House Occuped (%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>House Owner Occupied (%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vacant Boarded (%)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vacant more than 6 months (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$23:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16AC-473C-8D91-770ABB575A51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="628574256"/>
+        <c:axId val="628574584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="628574256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Housing Occupancy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628574584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628574584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Violent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Crime Per Pop</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628574256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlaton</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between Violent Crimes Per Population </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>vs. Education and Employment Status</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$D$41:$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Less than 9th Grade</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not HS Gradulate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BS or More Education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unemployed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Employed (%)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Employed - Manufacturing (%)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Employed - Professional Service (%)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Occupation - Mfrg (%)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Occupation - Prof Svc (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$41:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.1499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.33900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F087-406F-AB07-75516261D90E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="867443080"/>
+        <c:axId val="867442424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="867443080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867442424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="867442424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Violent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Crime per Pop</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867443080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between 12-29 , 15% correlation with Violent Crime per Population</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$D$61:$D$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Age between 12-21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Age between 12-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Age between 16-24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Age 65-Over</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$61:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD6E-4E97-962B-9B510CDD8927}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="639015720"/>
+        <c:axId val="639016048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="639015720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639016048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="639016048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639015720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDCC0BB-94F6-40C4-918A-6ED52A4CC802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB563E4-5B29-4DCC-B5CB-7C8C1018272C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3675AC5A-55B6-4E90-ABFE-0FFEEC81BE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280986</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269EA6CE-D8D0-4186-8F6A-A97AA58022F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1887,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DEEA72-70B1-4D8C-859F-31AC7A9F1043}">
   <dimension ref="A1:B522"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210:B340"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4491,729 +9159,2766 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9D30BF-43AA-4322-99BA-B5A123BAB036}">
+  <dimension ref="A1:A128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection sqref="A1:A128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F50EEB-24EF-4AE9-9256-C24BA12517E8}">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1">
+      <c r="A4" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1">
+      <c r="C5" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:3" s="3" customFormat="1">
+      <c r="C6" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:3" s="3" customFormat="1">
+      <c r="C7" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1">
+      <c r="C8" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="C9" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>479</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>480</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="C29" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>481</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="C31" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="C32" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:3">
+      <c r="C33" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:3">
+      <c r="C34" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="C35" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>482</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>500</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>483</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>499</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>499</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>494</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>499</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>495</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>499</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>499</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="2" t="s">
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>499</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>496</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
+        <v>499</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>499</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="2" t="s">
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>499</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:3">
+      <c r="B56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="2" t="s">
+    <row r="57" spans="1:3">
+      <c r="B57" t="s">
+        <v>499</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="2" t="s">
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>499</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>486</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>499</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
+        <v>499</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="B62" s="2" t="s">
+    <row r="62" spans="1:3">
+      <c r="B62" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>499</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>499</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="B68" s="2" t="s">
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>499</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>487</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
+        <v>499</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
+        <v>499</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>497</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
+        <v>499</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="2" t="s">
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
+        <v>499</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="2" t="s">
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>501</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:3">
+      <c r="B75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="B76" s="2" t="s">
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>499</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="B77" s="2" t="s">
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="B78" s="2" t="s">
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
+        <v>499</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
+        <v>501</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" s="2" t="s">
+    <row r="80" spans="1:3">
+      <c r="B80" t="s">
+        <v>500</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="1:3">
+      <c r="B81" t="s">
+        <v>499</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>499</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="B84" s="2" t="s">
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>499</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>499</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>488</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="2" t="s">
+    <row r="89" spans="1:3">
+      <c r="C89" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="1:3">
+      <c r="C90" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="C91" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="C92" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="C93" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:3">
+      <c r="B96" t="s">
+        <v>502</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="B97" s="2" t="s">
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>489</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="B99" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>481</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="2" t="s">
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="B102" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
+        <v>499</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" s="2" t="s">
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>499</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="B104" s="2" t="s">
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>490</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="B106" s="2" t="s">
+    <row r="106" spans="1:3">
+      <c r="C106" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="2" t="s">
+    <row r="107" spans="1:3">
+      <c r="C107" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="B108" s="2" t="s">
+    <row r="108" spans="1:3">
+      <c r="C108" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="2" t="s">
+    <row r="109" spans="1:3">
+      <c r="C109" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="B110" s="2" t="s">
+    <row r="110" spans="1:3">
+      <c r="C110" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="B111" s="2" t="s">
+    <row r="111" spans="1:3">
+      <c r="C111" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="B112" s="2" t="s">
+    <row r="112" spans="1:3">
+      <c r="C112" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="B113" s="2" t="s">
+    <row r="113" spans="1:3">
+      <c r="C113" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="B114" s="2" t="s">
+    <row r="114" spans="1:3">
+      <c r="C114" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="B115" s="2" t="s">
+    <row r="115" spans="1:3">
+      <c r="C115" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="1:3">
+      <c r="C116" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="B117" s="2" t="s">
+    <row r="117" spans="1:3">
+      <c r="C117" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="B118" s="2" t="s">
+    <row r="118" spans="1:3">
+      <c r="C118" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="B119" s="2" t="s">
+    <row r="119" spans="1:3">
+      <c r="C119" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="B120" s="2" t="s">
+    <row r="120" spans="1:3">
+      <c r="C120" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="1:3">
+      <c r="C121" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>491</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="B123" s="2" t="s">
+    <row r="123" spans="1:3">
+      <c r="C123" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>498</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="B125" s="2" t="s">
+    <row r="125" spans="1:3">
+      <c r="C125" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="B126" s="2" t="s">
+    <row r="126" spans="1:3">
+      <c r="C126" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="B127" s="2" t="s">
+    <row r="127" spans="1:3">
+      <c r="C127" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="B128" s="2" t="s">
+    <row r="128" spans="1:3">
+      <c r="C128" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="2" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="2" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="2" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="4" t="s">
         <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725064DB-E293-4C0F-A728-FB6F056DC9A0}">
+  <dimension ref="A1:C131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="130" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>500</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>499</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>499</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>499</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>499</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>499</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>499</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>499</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>499</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>499</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>499</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>499</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>499</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>499</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>499</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>499</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>499</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>499</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>499</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>499</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>499</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>499</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>499</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>499</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>499</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>499</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>501</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>499</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>499</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>501</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>500</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>499</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>499</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>499</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>499</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>499</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="C89" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="C90" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="C91" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="C92" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>502</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>499</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>499</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>499</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>499</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="C106" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="C109" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F93B5-AC19-455C-8059-BCCE05682823}">
+  <dimension ref="D5:E64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5">
+      <c r="D5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E5">
+        <v>-0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6">
+        <v>-0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9">
+        <v>-0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E23">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E24">
+        <v>-0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E25">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" t="s">
+        <v>521</v>
+      </c>
+      <c r="E26">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41" t="s">
+        <v>510</v>
+      </c>
+      <c r="E41">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42" t="s">
+        <v>511</v>
+      </c>
+      <c r="E42">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43" t="s">
+        <v>512</v>
+      </c>
+      <c r="E43">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" t="s">
+        <v>514</v>
+      </c>
+      <c r="E45">
+        <v>-0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" t="s">
+        <v>515</v>
+      </c>
+      <c r="E46">
+        <v>-0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" t="s">
+        <v>516</v>
+      </c>
+      <c r="E47">
+        <v>-7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" t="s">
+        <v>517</v>
+      </c>
+      <c r="E48">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
+        <v>518</v>
+      </c>
+      <c r="E49">
+        <v>-0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" t="s">
+        <v>523</v>
+      </c>
+      <c r="E62">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" t="s">
+        <v>524</v>
+      </c>
+      <c r="E63">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" t="s">
+        <v>525</v>
+      </c>
+      <c r="E64">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>